--- a/Assets/Resources/Cfg/EnemyDataCfg.xlsx
+++ b/Assets/Resources/Cfg/EnemyDataCfg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/41cce7339587cfd7/Unity Projects/Slay the Touhou RE/Assets/Resources/Cfg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="11_AD4DA82427541F7ACA7EB88DD0CD058C6BE8DE12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7F11D29-1002-48D2-9811-EE721080F7C3}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="11_AD4DA82427541F7ACA7EB88DD0CD058C6BE8DE12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{656BE3E4-F7C0-44EA-A585-C74C396D7A17}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4940" yWindow="4940" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ImgPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>InitSheild</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,10 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//敌人图片素材路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>//最大生命值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -152,6 +144,34 @@
   </si>
   <si>
     <t>幽灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//敌人素材路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourcePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//敌人类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act1Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//行动1数值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -499,7 +519,7 @@
     <col min="16" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,166 +527,184 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>29</v>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O3" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="1">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1">
         <v>18</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>1001</v>
       </c>
-      <c r="H4" s="1">
-        <v>-1</v>
-      </c>
       <c r="I4" s="1">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1">
         <v>-1</v>
@@ -675,15 +713,21 @@
         <v>-1</v>
       </c>
       <c r="L4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N4" s="1">
         <v>1</v>
       </c>
-      <c r="M4" s="1">
+      <c r="O4" s="1">
         <v>1</v>
       </c>
-      <c r="N4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O4" s="1">
+      <c r="P4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q4" s="1">
         <v>-1</v>
       </c>
     </row>

--- a/Assets/Resources/Cfg/EnemyDataCfg.xlsx
+++ b/Assets/Resources/Cfg/EnemyDataCfg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/41cce7339587cfd7/Unity Projects/Slay the Touhou RE/Assets/Resources/Cfg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="11_AD4DA82427541F7ACA7EB88DD0CD058C6BE8DE12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{656BE3E4-F7C0-44EA-A585-C74C396D7A17}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="11_AD4DA82427541F7ACA7EB88DD0CD058C6BE8DE12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D41A761-0FE4-4931-A758-818869347C43}"/>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="4940" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5280" yWindow="5280" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>InitSheild</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ActNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -172,6 +168,10 @@
   </si>
   <si>
     <t>//行动1数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitShield</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,7 +503,7 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -527,102 +527,102 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -683,13 +683,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" s="1">
         <v>18</v>

--- a/Assets/Resources/Cfg/EnemyDataCfg.xlsx
+++ b/Assets/Resources/Cfg/EnemyDataCfg.xlsx
@@ -1,209 +1,521 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/41cce7339587cfd7/Unity Projects/Slay the Touhou RE/Assets/Resources/Cfg/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="11_AD4DA82427541F7ACA7EB88DD0CD058C6BE8DE12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D41A761-0FE4-4931-A758-818869347C43}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="5280" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourcePath</t>
+  </si>
+  <si>
+    <t>EnemyType</t>
   </si>
   <si>
     <t>MaxHp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitShield</t>
   </si>
   <si>
     <t>ActNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Act1ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act1Value</t>
   </si>
   <si>
     <t>Act2ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act2Value</t>
   </si>
   <si>
     <t>Act3ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Act4ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Act5ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ActModeNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ActMode1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ActMode2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ActMode3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>//敌人ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>//敌人名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//敌人素材路径</t>
+  </si>
+  <si>
+    <t>//敌人类型</t>
   </si>
   <si>
     <t>//最大生命值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>//初始护盾值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>//行动数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>//行动1ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//行动1数值</t>
   </si>
   <si>
     <t>//行动2ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//行动2数值</t>
   </si>
   <si>
     <t>//行动3ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>//行动4ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>//行动5ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>//行动模式数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>//行动模式1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>//行动模式2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>//行动模式3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小幽灵</t>
   </si>
   <si>
     <t>Image/Enemy/幽灵A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幽灵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//敌人素材路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResourcePath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnemyType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//敌人类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>普通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act1Value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//行动1数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InitShield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中幽灵</t>
+  </si>
+  <si>
+    <t>Image/Enemy/幽灵B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -211,27 +523,319 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -280,7 +884,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -315,7 +919,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -489,207 +1093,219 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="10.9140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="8.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="1" customWidth="1"/>
+    <col min="12" max="14" width="9.375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.625" style="1" customWidth="1"/>
+    <col min="16" max="18" width="11.5" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.66666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:19">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="N2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="O2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="R2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="2"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>26</v>
-      </c>
+    <row r="3" spans="1:19">
+      <c r="A3" s="3">
+        <v>-1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K3" s="3">
+        <v>-1</v>
+      </c>
+      <c r="L3" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M3" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N3" s="3">
+        <v>-1</v>
+      </c>
+      <c r="O3" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P3" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>-1</v>
+      </c>
+      <c r="R3" s="3">
+        <v>-1</v>
+      </c>
+      <c r="S3" s="3"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="P3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E4" s="1">
         <v>18</v>
@@ -704,7 +1320,7 @@
         <v>1001</v>
       </c>
       <c r="I4" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1">
         <v>-1</v>
@@ -719,21 +1335,80 @@
         <v>-1</v>
       </c>
       <c r="N4" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O4" s="1">
         <v>1</v>
       </c>
       <c r="P4" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R4" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:18">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="1">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1001</v>
+      </c>
+      <c r="I5" s="1">
+        <v>7</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1002</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
+        <v>121</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R5" s="1">
         <v>-1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/Resources/Cfg/EnemyDataCfg.xlsx
+++ b/Assets/Resources/Cfg/EnemyDataCfg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>Image/Enemy/幽灵B</t>
+  </si>
+  <si>
+    <t>懒惰幽灵</t>
   </si>
 </sst>
 </file>
@@ -144,12 +147,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,12 +162,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -172,62 +183,78 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,9 +268,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,9 +277,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -268,44 +302,6 @@
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -330,19 +326,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,19 +440,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,13 +458,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,102 +488,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -499,18 +507,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,36 +517,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -575,21 +541,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -621,151 +572,196 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1099,13 +1095,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="8.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.375" style="1" customWidth="1"/>
@@ -1406,6 +1402,62 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="6" s="1" customFormat="1" spans="1:18">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="1">
+        <v>30</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1001</v>
+      </c>
+      <c r="I6" s="1">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1002</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2</v>
+      </c>
+      <c r="L6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1">
+        <v>121</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R6" s="1">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Assets/Resources/Cfg/EnemyDataCfg.xlsx
+++ b/Assets/Resources/Cfg/EnemyDataCfg.xlsx
@@ -148,9 +148,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -162,14 +162,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,15 +178,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,6 +192,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -206,39 +207,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,9 +274,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,43 +304,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -326,25 +326,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,157 +506,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,13 +520,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,8 +570,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -560,15 +584,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,21 +599,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,10 +623,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -635,16 +635,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -653,115 +653,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1097,8 +1097,8 @@
   <sheetPr/>
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>

--- a/Assets/Resources/Cfg/EnemyDataCfg.xlsx
+++ b/Assets/Resources/Cfg/EnemyDataCfg.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Slay-the-Touhou-RE\Assets\Resources\Cfg\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24221279-CE33-4792-B081-A857FD71D6BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="4114" yWindow="2451" windowWidth="28800" windowHeight="15463" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>ID</t>
   </si>
@@ -140,19 +146,49 @@
   </si>
   <si>
     <t>懒惰幽灵</t>
+  </si>
+  <si>
+    <t>精英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Enemy/幽灵B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴躁幽灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionStart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionDie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//开局行动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//亡语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionDieValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//亡语值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,151 +197,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -314,204 +221,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.4"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -519,253 +240,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -776,62 +255,27 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1089,37 +533,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:S6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="1" customWidth="1"/>
-    <col min="5" max="6" width="12.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="1" customWidth="1"/>
-    <col min="12" max="14" width="9.375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14.625" style="1" customWidth="1"/>
-    <col min="16" max="18" width="11.5" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.66666666666667" style="1"/>
+    <col min="1" max="1" width="8" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.2109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.0703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.0703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="9" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="11.0703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.92578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1174,9 +620,17 @@
       <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2"/>
+      <c r="S1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -1231,9 +685,17 @@
       <c r="R2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="2"/>
+      <c r="S2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>-1</v>
       </c>
@@ -1288,9 +750,17 @@
       <c r="R3" s="3">
         <v>-1</v>
       </c>
-      <c r="S3" s="3"/>
+      <c r="S3" s="3">
+        <v>-1</v>
+      </c>
+      <c r="T3" s="3">
+        <v>-1</v>
+      </c>
+      <c r="U3" s="3">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1345,8 +815,17 @@
       <c r="R4" s="1">
         <v>-1</v>
       </c>
+      <c r="S4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U4" s="1">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:18">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1401,8 +880,17 @@
       <c r="R5" s="1">
         <v>-1</v>
       </c>
+      <c r="S5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U5" s="1">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:18">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1412,8 +900,8 @@
       <c r="C6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>38</v>
+      <c r="D6" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="E6" s="1">
         <v>30</v>
@@ -1428,13 +916,13 @@
         <v>1001</v>
       </c>
       <c r="I6" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J6" s="1">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="K6" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L6" s="1">
         <v>-1</v>
@@ -1457,10 +945,84 @@
       <c r="R6" s="1">
         <v>-1</v>
       </c>
+      <c r="S6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U6" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="1">
+        <v>40</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1001</v>
+      </c>
+      <c r="I7" s="1">
+        <v>16</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1001</v>
+      </c>
+      <c r="K7" s="1">
+        <v>8</v>
+      </c>
+      <c r="L7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1">
+        <v>211</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T7" s="1">
+        <v>1005</v>
+      </c>
+      <c r="U7" s="1">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Resources/Cfg/EnemyDataCfg.xlsx
+++ b/Assets/Resources/Cfg/EnemyDataCfg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Slay-the-Touhou-RE\Assets\Resources\Cfg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24221279-CE33-4792-B081-A857FD71D6BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E225AB-068E-4F5C-8D7C-6B164DB2B541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4114" yWindow="2451" windowWidth="28800" windowHeight="15463" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -181,6 +181,10 @@
   </si>
   <si>
     <t>//亡语值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionStartValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -539,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -565,7 +569,7 @@
     <col min="21" max="16384" width="8.640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -624,13 +628,16 @@
         <v>45</v>
       </c>
       <c r="T1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -689,13 +696,16 @@
         <v>47</v>
       </c>
       <c r="T2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="U2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>-1</v>
       </c>
@@ -759,8 +769,11 @@
       <c r="U3" s="3">
         <v>-1</v>
       </c>
+      <c r="V3" s="3">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -824,8 +837,11 @@
       <c r="U4" s="1">
         <v>-1</v>
       </c>
+      <c r="V4" s="1">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -889,8 +905,11 @@
       <c r="U5" s="1">
         <v>-1</v>
       </c>
+      <c r="V5" s="1">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -916,13 +935,13 @@
         <v>1001</v>
       </c>
       <c r="I6" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J6" s="1">
         <v>1003</v>
       </c>
       <c r="K6" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="L6" s="1">
         <v>-1</v>
@@ -954,8 +973,11 @@
       <c r="U6" s="1">
         <v>-1</v>
       </c>
+      <c r="V6" s="1">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -984,7 +1006,7 @@
         <v>16</v>
       </c>
       <c r="J7" s="1">
-        <v>1001</v>
+        <v>2001</v>
       </c>
       <c r="K7" s="1">
         <v>8</v>
@@ -1011,13 +1033,16 @@
         <v>-1</v>
       </c>
       <c r="S7" s="1">
-        <v>-1</v>
+        <v>1006</v>
       </c>
       <c r="T7" s="1">
-        <v>1005</v>
+        <v>2</v>
       </c>
       <c r="U7" s="1">
-        <v>2</v>
+        <v>-1</v>
+      </c>
+      <c r="V7" s="1">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Cfg/EnemyDataCfg.xlsx
+++ b/Assets/Resources/Cfg/EnemyDataCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Slay-the-Touhou-RE\Assets\Resources\Cfg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E225AB-068E-4F5C-8D7C-6B164DB2B541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56D92DC-10C5-448E-9734-D419D6505E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4114" yWindow="2451" windowWidth="28800" windowHeight="15463" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
   <si>
     <t>ID</t>
   </si>
@@ -185,6 +185,14 @@
   </si>
   <si>
     <t>ActionStartValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//掉落金币数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -565,11 +573,14 @@
     <col min="15" max="15" width="14" style="6" bestFit="1" customWidth="1"/>
     <col min="16" max="18" width="11.0703125" style="6" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.92578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.640625" style="6"/>
+    <col min="20" max="20" width="14.640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.92578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -636,8 +647,11 @@
       <c r="V1" s="5" t="s">
         <v>49</v>
       </c>
+      <c r="W1" s="5" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -704,8 +718,11 @@
       <c r="V2" s="5" t="s">
         <v>50</v>
       </c>
+      <c r="W2" s="5" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>-1</v>
       </c>
@@ -772,8 +789,11 @@
       <c r="V3" s="3">
         <v>-1</v>
       </c>
+      <c r="W3" s="3">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -840,8 +860,11 @@
       <c r="V4" s="1">
         <v>-1</v>
       </c>
+      <c r="W4" s="1">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -908,8 +931,11 @@
       <c r="V5" s="1">
         <v>-1</v>
       </c>
+      <c r="W5" s="1">
+        <v>15</v>
+      </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -976,8 +1002,11 @@
       <c r="V6" s="1">
         <v>-1</v>
       </c>
+      <c r="W6" s="1">
+        <v>30</v>
+      </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1043,6 +1072,9 @@
       </c>
       <c r="V7" s="1">
         <v>-1</v>
+      </c>
+      <c r="W7" s="1">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Cfg/EnemyDataCfg.xlsx
+++ b/Assets/Resources/Cfg/EnemyDataCfg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Slay-the-Touhou-RE\Assets\Resources\Cfg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56D92DC-10C5-448E-9734-D419D6505E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90301F1-A574-493E-8D75-AE61B2CD0D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5070" yWindow="5070" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
   <si>
     <t>ID</t>
   </si>
@@ -193,6 +193,38 @@
   </si>
   <si>
     <t>//掉落金币数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//开局行动值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽幽子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Enemy/幽幽子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首领</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30;2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act3Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//行动3数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15;2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -551,36 +583,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.2109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.0703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.125" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.0703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="9" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="11.0703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.92578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.640625" style="6"/>
+    <col min="11" max="11" width="11.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="6" customWidth="1"/>
+    <col min="14" max="15" width="9" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="11.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -617,41 +651,44 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -688,41 +725,44 @@
       <c r="L2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="T2" s="5" t="s">
         <v>47</v>
       </c>
       <c r="U2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="V2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="W2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="X2" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>-1</v>
       </c>
@@ -792,8 +832,11 @@
       <c r="W3" s="3">
         <v>-1</v>
       </c>
+      <c r="X3" s="3">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -837,13 +880,13 @@
         <v>-1</v>
       </c>
       <c r="O4" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P4" s="1">
         <v>1</v>
       </c>
       <c r="Q4" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R4" s="1">
         <v>-1</v>
@@ -861,10 +904,13 @@
         <v>-1</v>
       </c>
       <c r="W4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X4" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -908,14 +954,14 @@
         <v>-1</v>
       </c>
       <c r="O5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P5" s="1">
         <v>1</v>
       </c>
-      <c r="P5" s="1">
+      <c r="Q5" s="1">
         <v>121</v>
       </c>
-      <c r="Q5" s="1">
-        <v>-1</v>
-      </c>
       <c r="R5" s="1">
         <v>-1</v>
       </c>
@@ -932,10 +978,13 @@
         <v>-1</v>
       </c>
       <c r="W5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X5" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -979,14 +1028,14 @@
         <v>-1</v>
       </c>
       <c r="O6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P6" s="1">
         <v>1</v>
       </c>
-      <c r="P6" s="1">
+      <c r="Q6" s="1">
         <v>121</v>
       </c>
-      <c r="Q6" s="1">
-        <v>-1</v>
-      </c>
       <c r="R6" s="1">
         <v>-1</v>
       </c>
@@ -1003,10 +1052,13 @@
         <v>-1</v>
       </c>
       <c r="W6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X6" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1050,31 +1102,108 @@
         <v>-1</v>
       </c>
       <c r="O7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P7" s="1">
         <v>1</v>
       </c>
-      <c r="P7" s="1">
+      <c r="Q7" s="1">
         <v>211</v>
       </c>
-      <c r="Q7" s="1">
-        <v>-1</v>
-      </c>
       <c r="R7" s="1">
         <v>-1</v>
       </c>
       <c r="S7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T7" s="1">
         <v>1006</v>
       </c>
-      <c r="T7" s="1">
+      <c r="U7" s="1">
         <v>2</v>
       </c>
-      <c r="U7" s="1">
-        <v>-1</v>
-      </c>
       <c r="V7" s="1">
         <v>-1</v>
       </c>
       <c r="W7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X7" s="1">
         <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="1">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1007</v>
+      </c>
+      <c r="I8" s="1">
+        <v>50</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1008</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1009</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>132312</v>
+      </c>
+      <c r="R8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T8" s="1">
+        <v>1010</v>
+      </c>
+      <c r="U8" s="1">
+        <v>2</v>
+      </c>
+      <c r="V8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="W8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X8" s="1">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Cfg/EnemyDataCfg.xlsx
+++ b/Assets/Resources/Cfg/EnemyDataCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Slay-the-Touhou-RE\Assets\Resources\Cfg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90301F1-A574-493E-8D75-AE61B2CD0D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668A24B4-3C95-4D7B-9764-71D15A9799CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="5070" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -585,11 +585,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="6" bestFit="1" customWidth="1"/>
@@ -598,23 +598,23 @@
     <col min="5" max="6" width="12" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.08203125" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08203125" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="6" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="6" customWidth="1"/>
     <col min="14" max="15" width="9" style="6" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="11.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="11.08203125" style="6" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.58203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.58203125" style="6" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.625" style="6"/>
+    <col min="25" max="16384" width="8.58203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -688,7 +688,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -762,7 +762,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>-1</v>
       </c>
@@ -836,7 +836,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -865,10 +865,10 @@
         <v>3</v>
       </c>
       <c r="J4" s="1">
-        <v>-1</v>
+        <v>2001</v>
       </c>
       <c r="K4" s="1">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L4" s="1">
         <v>-1</v>
@@ -886,10 +886,10 @@
         <v>1</v>
       </c>
       <c r="Q4" s="1">
-        <v>1</v>
+        <v>122</v>
       </c>
       <c r="R4" s="1">
-        <v>-1</v>
+        <v>212</v>
       </c>
       <c r="S4" s="1">
         <v>-1</v>
@@ -910,7 +910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -960,10 +960,10 @@
         <v>1</v>
       </c>
       <c r="Q5" s="1">
-        <v>121</v>
+        <v>12111</v>
       </c>
       <c r="R5" s="1">
-        <v>-1</v>
+        <v>11211</v>
       </c>
       <c r="S5" s="1">
         <v>-1</v>
@@ -984,7 +984,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1034,10 +1034,10 @@
         <v>1</v>
       </c>
       <c r="Q6" s="1">
-        <v>121</v>
+        <v>1211</v>
       </c>
       <c r="R6" s="1">
-        <v>-1</v>
+        <v>1121</v>
       </c>
       <c r="S6" s="1">
         <v>-1</v>
@@ -1058,7 +1058,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>211</v>
       </c>
       <c r="R7" s="1">
-        <v>-1</v>
+        <v>121</v>
       </c>
       <c r="S7" s="1">
         <v>-1</v>
@@ -1132,7 +1132,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>132312</v>
       </c>
       <c r="R8" s="1">
-        <v>-1</v>
+        <v>113231</v>
       </c>
       <c r="S8" s="1">
         <v>-1</v>

--- a/Assets/Resources/Cfg/EnemyDataCfg.xlsx
+++ b/Assets/Resources/Cfg/EnemyDataCfg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Slay-the-Touhou-RE\Assets\Resources\Cfg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668A24B4-3C95-4D7B-9764-71D15A9799CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB9E73D-FCE8-4A8C-8404-CB3525ED9FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -586,7 +586,7 @@
   <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" s="1">
         <v>1001</v>
@@ -883,7 +883,7 @@
         <v>-1</v>
       </c>
       <c r="P4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q4" s="1">
         <v>122</v>
@@ -957,7 +957,7 @@
         <v>-1</v>
       </c>
       <c r="P5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q5" s="1">
         <v>12111</v>
@@ -1031,7 +1031,7 @@
         <v>-1</v>
       </c>
       <c r="P6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q6" s="1">
         <v>1211</v>
@@ -1105,7 +1105,7 @@
         <v>-1</v>
       </c>
       <c r="P7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q7" s="1">
         <v>211</v>
@@ -1179,7 +1179,7 @@
         <v>-1</v>
       </c>
       <c r="P8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q8" s="1">
         <v>132312</v>
